--- a/Results/RectangleResults/2014/Human_Rectangle_2014.xlsx
+++ b/Results/RectangleResults/2014/Human_Rectangle_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\RectangleResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\Results\RectangleResults\2014\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <t>Humano</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>time 15</t>
+  </si>
+  <si>
+    <t>Porcentaje optimo</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -736,7 +739,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1059,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44:T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>30</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>7</v>
       </c>
@@ -2301,7 +2304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>27</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>6</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>90</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>22</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>15</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>18</v>
       </c>
@@ -2625,7 +2628,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>9</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>25</v>
       </c>
@@ -2733,7 +2736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>58</v>
       </c>
@@ -2782,8 +2785,14 @@
       <c r="R44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="S44" t="s">
+        <v>11</v>
+      </c>
+      <c r="T44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
         <f>1000*($S34-C34)/$S34+100*C23</f>
         <v>450</v>
@@ -2848,8 +2857,15 @@
         <f>AVERAGE(C45:Q45)</f>
         <v>721.66666666666663</v>
       </c>
-    </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <v>975</v>
+      </c>
+      <c r="T45" s="3">
+        <f>R45*100/S45</f>
+        <v>74.01709401709401</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <f t="shared" ref="C46:Q46" si="3">1000*($S35-C35)/$S35+100*C24</f>
         <v>920</v>
@@ -2911,329 +2927,364 @@
         <v>880</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" ref="R46:R56" si="4">AVERAGE(C46:Q46)</f>
+        <f t="shared" ref="R46:R54" si="4">AVERAGE(C46:Q46)</f>
         <v>909.33333333333337</v>
       </c>
-    </row>
-    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <v>1000</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" ref="T46:T54" si="5">R46*100/S46</f>
+        <v>90.933333333333337</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
-        <f t="shared" ref="C47:Q47" si="5">1000*($S36-C36)/$S36+100*C25</f>
+        <f t="shared" ref="C47:Q47" si="6">1000*($S36-C36)/$S36+100*C25</f>
         <v>962.5</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1037.5</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>962.5</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1012.5</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>987.5</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>975</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>825</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>950</v>
       </c>
       <c r="R47" s="3">
         <f t="shared" si="4"/>
         <v>680.83333333333337</v>
       </c>
-    </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>1125</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="5"/>
+        <v>60.518518518518526</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
-        <f t="shared" ref="C48:Q48" si="6">1000*($S37-C37)/$S37+100*C26</f>
+        <f t="shared" ref="C48:Q48" si="7">1000*($S37-C37)/$S37+100*C26</f>
         <v>900</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>850</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>850</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>850</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>850</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
       <c r="Q48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>850</v>
       </c>
       <c r="R48" s="3">
         <f t="shared" si="4"/>
         <v>806.66666666666663</v>
       </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>1000</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" si="5"/>
+        <v>80.666666666666657</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
-        <f t="shared" ref="C49:Q49" si="7">1000*($S38-C38)/$S38+100*C27</f>
+        <f t="shared" ref="C49:Q49" si="8">1000*($S38-C38)/$S38+100*C27</f>
         <v>400</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1077.7777777777778</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1155.5555555555557</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1166.6666666666665</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1144.4444444444443</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1155.5555555555557</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1111.1111111111111</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1100</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1088.8888888888889</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1088.8888888888889</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1044.4444444444443</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="R49" s="3">
         <f t="shared" si="4"/>
         <v>908.8888888888888</v>
       </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>1278</v>
+      </c>
+      <c r="T49" s="3">
+        <f t="shared" si="5"/>
+        <v>71.118066423230729</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
-        <f t="shared" ref="C50:Q50" si="8">1000*($S39-C39)/$S39+100*C28</f>
+        <f t="shared" ref="C50:Q50" si="9">1000*($S39-C39)/$S39+100*C28</f>
         <v>750</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>375</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>450</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>700</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>650</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="R50" s="3">
         <f t="shared" si="4"/>
         <v>355</v>
       </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <v>950</v>
+      </c>
+      <c r="T50" s="3">
+        <f t="shared" si="5"/>
+        <v>37.368421052631582</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
-        <f t="shared" ref="C51:P51" si="9">1000*($S40-C40)/$S40+100*C29</f>
+        <f t="shared" ref="C51:P51" si="10">1000*($S40-C40)/$S40+100*C29</f>
         <v>1000</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1020</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>940</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>980</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1020</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1040</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>960</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>860</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>860</v>
       </c>
       <c r="Q51" s="3">
@@ -3244,206 +3295,234 @@
         <f t="shared" si="4"/>
         <v>712</v>
       </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <v>1120</v>
+      </c>
+      <c r="T51" s="3">
+        <f t="shared" si="5"/>
+        <v>63.571428571428569</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
-        <f t="shared" ref="C52:Q52" si="10">1000*($S41-C41)/$S41+100*C30</f>
+        <f t="shared" ref="C52:Q52" si="11">1000*($S41-C41)/$S41+100*C30</f>
         <v>1000</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>900</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>983.33333333333337</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>983.33333333333337</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>950</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>900</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>866.66666666666663</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>816.66666666666663</v>
       </c>
       <c r="Q52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1033.3333333333335</v>
       </c>
       <c r="R52" s="3">
         <f t="shared" si="4"/>
         <v>635.55555555555554</v>
       </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <v>1100</v>
+      </c>
+      <c r="T52" s="3">
+        <f t="shared" si="5"/>
+        <v>57.777777777777779</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
-        <f t="shared" ref="C53:Q53" si="11">1000*($S42-C42)/$S42+100*C31</f>
+        <f t="shared" ref="C53:Q53" si="12">1000*($S42-C42)/$S42+100*C31</f>
         <v>1042.8571428571429</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1042.8571428571429</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1042.8571428571429</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>957.14285714285711</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>900</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>928.57142857142856</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>985.71428571428567</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>957.14285714285711</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>928.57142857142856</v>
       </c>
       <c r="P53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1014.2857142857143</v>
       </c>
       <c r="Q53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>957.14285714285711</v>
       </c>
       <c r="R53" s="3">
         <f t="shared" si="4"/>
         <v>757.14285714285711</v>
       </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>1071</v>
+      </c>
+      <c r="T53" s="3">
+        <f t="shared" si="5"/>
+        <v>70.694944644524469</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <f>1000*($S43-C43)/$S43+100*C32</f>
         <v>585.71428571428578</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" ref="C54:Q54" si="12">1000*($S43-D43)/$S43+100*D32</f>
+        <f t="shared" ref="D54:Q54" si="13">1000*($S43-D43)/$S43+100*D32</f>
         <v>585.71428571428578</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>785.71428571428578</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>757.14285714285711</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>585.71428571428578</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>728.57142857142856</v>
       </c>
       <c r="R54" s="3">
         <f t="shared" si="4"/>
         <v>355.23809523809524</v>
       </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <v>843</v>
+      </c>
+      <c r="T54" s="3">
+        <f t="shared" si="5"/>
+        <v>42.139750324803707</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>73</v>
       </c>
@@ -3452,67 +3531,67 @@
         <v>8011.0714285714294</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ref="D55:R55" si="13">SUM(D45:D54)</f>
+        <f t="shared" ref="D55:R55" si="14">SUM(D45:D54)</f>
         <v>7766.3492063492067</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4915.5555555555557</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8034.4047619047615</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7361.3095238095229</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5072.5</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7574.9206349206343</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6495.5555555555557</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5481.1111111111113</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8456.0714285714294</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7980.3174603174593</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6687.6984126984125</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4928.0158730158728</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6245.9523809523816</v>
       </c>
       <c r="Q55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7624.0476190476193</v>
       </c>
       <c r="R55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6842.3253968253966</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>74</v>
       </c>
@@ -3521,59 +3600,59 @@
         <v>0.76573039844880797</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:Q56" si="14">D55/$I14</f>
+        <f t="shared" ref="D56:Q56" si="15">D55/$I14</f>
         <v>0.74233886506874469</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.46984855243314427</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.76796069221035768</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.70362354461953003</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.48484993309118718</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.7240413529841937</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.62087130142951208</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.52390662503451646</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.80826528661550656</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.76279081058281961</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.63923708781288591</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.47103955964594463</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.59701322700749204</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.72873710753657228</v>
       </c>
       <c r="R56" s="1">
